--- a/Data/ExcelTestdata.xlsx
+++ b/Data/ExcelTestdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>Partner</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>dest</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>GOI</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>MOI</t>
+  </si>
+  <si>
+    <t>BUR</t>
   </si>
 </sst>
 </file>
@@ -451,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -537,10 +561,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
